--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>479800</v>
       </c>
       <c r="E8" s="3">
+        <v>481400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>484100</v>
+      </c>
+      <c r="G8" s="3">
         <v>480700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>465600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>460800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>434200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>416800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>397100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>387000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>370700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>361900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>350600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>342300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>335100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>131600</v>
       </c>
       <c r="E17" s="3">
+        <v>152900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>157200</v>
+      </c>
+      <c r="G17" s="3">
         <v>159800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>152900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>132200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>116800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>103800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>219700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>108900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>76200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>242300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>68500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>67700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>125100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>348200</v>
       </c>
       <c r="E18" s="3">
+        <v>328500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>326900</v>
+      </c>
+      <c r="G18" s="3">
         <v>320900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>312700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>328600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>317400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>313000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>177400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>278100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>294500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>119600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>282100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>274600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>210000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-196600</v>
       </c>
       <c r="E20" s="3">
+        <v>-130700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-123300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-113200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-112600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-107000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-130200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-101500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-97500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-106700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-93300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-85900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-85100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>156900</v>
       </c>
       <c r="E21" s="3">
+        <v>205600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>203100</v>
+      </c>
+      <c r="G21" s="3">
         <v>201900</v>
       </c>
-      <c r="F21" s="3">
-        <v>197200</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>205000</v>
+      </c>
+      <c r="I21" s="3">
         <v>218700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>208600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>209600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>50500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>179900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>200000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>191600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>191400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>127500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>197800</v>
+      </c>
+      <c r="F23" s="3">
         <v>198500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>197600</v>
       </c>
-      <c r="F23" s="3">
-        <v>193700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>201600</v>
+      </c>
+      <c r="I23" s="3">
         <v>215400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>204800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>206100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>47300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>176600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>197000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>188800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>188700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>124900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F24" s="3">
         <v>49800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>49700</v>
       </c>
-      <c r="F24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>58100</v>
+      </c>
+      <c r="I24" s="3">
         <v>54500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>49300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>51500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>12800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>63700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>72500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>54900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>74800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>99600</v>
       </c>
       <c r="E26" s="3">
+        <v>148200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>148700</v>
+      </c>
+      <c r="G26" s="3">
         <v>147900</v>
       </c>
-      <c r="F26" s="3">
-        <v>144100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>143500</v>
+      </c>
+      <c r="I26" s="3">
         <v>160800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>155400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>154600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>112900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>124500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>133900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>113900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>76100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>99100</v>
       </c>
       <c r="E27" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>148200</v>
+      </c>
+      <c r="G27" s="3">
         <v>147400</v>
       </c>
-      <c r="F27" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I27" s="3">
         <v>159900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>155400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>154600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>34500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>112900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>124500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>133900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>113900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,27 +1770,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>2000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>196600</v>
       </c>
       <c r="E32" s="3">
+        <v>130700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>128400</v>
+      </c>
+      <c r="G32" s="3">
         <v>123300</v>
       </c>
-      <c r="F32" s="3">
-        <v>119000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>111200</v>
+      </c>
+      <c r="I32" s="3">
         <v>113200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>112600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>107000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>130200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>101500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>97500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>106700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>93300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>85900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>85100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>99100</v>
       </c>
       <c r="E33" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>148200</v>
+      </c>
+      <c r="G33" s="3">
         <v>147400</v>
       </c>
-      <c r="F33" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I33" s="3">
         <v>159900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>155400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>154600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>34500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>114900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>124500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>133900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>113900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>99100</v>
       </c>
       <c r="E35" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>148200</v>
+      </c>
+      <c r="G35" s="3">
         <v>147400</v>
       </c>
-      <c r="F35" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I35" s="3">
         <v>159900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>155400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>154600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>34500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>114900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>124500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>133900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>113900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1480700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>702300</v>
+      </c>
+      <c r="F41" s="3">
         <v>798500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>204900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>404700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>269200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>155800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>799400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>290100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>250100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>489900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>693400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>499900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>650200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>317400</v>
+        <v>346800</v>
       </c>
       <c r="E42" s="3">
+        <v>326800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>326000</v>
+      </c>
+      <c r="G42" s="3">
         <v>405800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>348900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>312900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>270300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>300300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>275100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>273300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>197400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>206200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>192600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>171700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>163600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>284000</v>
+      </c>
+      <c r="F48" s="3">
         <v>281500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>279300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>282500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>59100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>69100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>66500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>62200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>61600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>60000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>56300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>53900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>50700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>47700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2606,20 +2845,26 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>60200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53074700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>50591800</v>
+      </c>
+      <c r="F54" s="3">
         <v>49411800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>48876900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>48546500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>47364800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>45870700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45215500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>44435600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>43117700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>41326900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>40718600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>40265300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>39047600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37792300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,55 +3111,67 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>715100</v>
+      </c>
+      <c r="F59" s="3">
         <v>737100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>799800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>733100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>530700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>498500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>436400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>359200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>403800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>397900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>184500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>397600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>373600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>252900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3217,67 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>456500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>456100</v>
+      </c>
+      <c r="F61" s="3">
         <v>258800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>258600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>258400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>258200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>258000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>257800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>257600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>257400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>257200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>257000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>256800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>256600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>256500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48310800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45846600</v>
+      </c>
+      <c r="F66" s="3">
         <v>44669900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>44215200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43994400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42957700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>41632700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>41067900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>40434500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>39086000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>37395000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>36921400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>36500500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>35435300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>34230700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3209600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3172300</v>
+      </c>
+      <c r="F72" s="3">
         <v>3079000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2961000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2844000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2730900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2601100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2476600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2322000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2290500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2175700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2051200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2037200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1903300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1789400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4764000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4745200</v>
+      </c>
+      <c r="F76" s="3">
         <v>4741900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4661700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4552000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4407100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4238000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4147600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4001200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4031700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3932000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3797200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3764900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3612300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3561600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>99100</v>
       </c>
       <c r="E81" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>148200</v>
+      </c>
+      <c r="G81" s="3">
         <v>147400</v>
       </c>
-      <c r="F81" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I81" s="3">
         <v>159900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>155400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>154600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>34500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>114900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>124500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>133900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>113900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>5300</v>
       </c>
       <c r="E83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>278100</v>
       </c>
       <c r="E89" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>73600</v>
+      </c>
+      <c r="G89" s="3">
         <v>164100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>487600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>206100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>206300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>145700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>93600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-86200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>382900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-145200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>394500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>239300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>221500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-14100</v>
       </c>
       <c r="E91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-1920300</v>
       </c>
       <c r="E94" s="3">
+        <v>-1214700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>60400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-391800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-996300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-962600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-881200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-682400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,29 +4847,31 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="E96" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-30900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-30800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-31000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>2405300</v>
       </c>
       <c r="E100" s="3">
+        <v>1081600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>411500</v>
+      </c>
+      <c r="G100" s="3">
         <v>72700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>762800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1219700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>471500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>552000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1376100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1740600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>260000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>628200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1018800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1110700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1177600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>763200</v>
       </c>
       <c r="E102" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>545600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-155000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>162100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>121900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-348500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-298600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>507100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-238300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-199500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>192600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-147600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>396300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>481800</v>
+      </c>
+      <c r="F8" s="3">
         <v>479800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>481400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>484100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>480700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>465600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>460800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>434200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>416800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>397100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>387000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>370700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>361900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>350600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>342300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>335100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>94600</v>
+      </c>
+      <c r="F17" s="3">
         <v>131600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>152900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>157200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>159800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>152900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>132200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>116800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>103800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>219700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>108900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>76200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>242300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>68500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>67700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>125100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>387200</v>
+      </c>
+      <c r="F18" s="3">
         <v>348200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>328500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>326900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>320900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>312700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>328600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>317400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>313000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>177400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>278100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>294500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>119600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>282100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>274600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>210000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1345,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-232200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-196600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-130700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-128400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-123300</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-111200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-113200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-112600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-107000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-130200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-101500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-97500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-106700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-93300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-85900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-85100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>160200</v>
+      </c>
+      <c r="F21" s="3">
         <v>156900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>205600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>203100</v>
       </c>
-      <c r="G21" s="3">
-        <v>201900</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>210400</v>
+      </c>
+      <c r="J21" s="3">
         <v>205000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>218700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>208600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>209600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>50500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>179900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>200000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>15800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>191600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>191400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>127500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>154900</v>
+      </c>
+      <c r="F23" s="3">
         <v>151700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>197800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>198500</v>
       </c>
-      <c r="G23" s="3">
-        <v>197600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J23" s="3">
         <v>201600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>215400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>204800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>206100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>47300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>176600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>197000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>188800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>188700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>124900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F24" s="3">
         <v>52100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>49600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>49800</v>
       </c>
-      <c r="G24" s="3">
-        <v>49700</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>58700</v>
+      </c>
+      <c r="J24" s="3">
         <v>58100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>54500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>49300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>51500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>63700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>72500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>54900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>74800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>48700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>117200</v>
+      </c>
+      <c r="F26" s="3">
         <v>99600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>148200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>148700</v>
       </c>
-      <c r="G26" s="3">
-        <v>147900</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>147300</v>
+      </c>
+      <c r="J26" s="3">
         <v>143500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>160800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>155400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>154600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>34500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>112900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>124500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>133900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>113900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>76100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F27" s="3">
         <v>99100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>147700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>148200</v>
       </c>
-      <c r="G27" s="3">
-        <v>147400</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J27" s="3">
         <v>143000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>159900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>155400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>154600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>34500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>112900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>124500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>133900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>113900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>76100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,27 +1898,27 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>2000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>232200</v>
+      </c>
+      <c r="F32" s="3">
         <v>196600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>130700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>128400</v>
       </c>
-      <c r="G32" s="3">
-        <v>123300</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J32" s="3">
         <v>111200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>113200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>112600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>107000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>130200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>101500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>97500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>106700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>93300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>85900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>85100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F33" s="3">
         <v>99100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>147700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>148200</v>
       </c>
-      <c r="G33" s="3">
-        <v>147400</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J33" s="3">
         <v>143000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>159900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>155400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>154600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>34500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>114900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>124500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>133900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>113900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>76100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F35" s="3">
         <v>99100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>147700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>148200</v>
       </c>
-      <c r="G35" s="3">
-        <v>147400</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J35" s="3">
         <v>143000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>159900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>155400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>154600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>34500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>114900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>124500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>133900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>113900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>76100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2399,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6255500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4475700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1480700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>702300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>798500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>204900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>404700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>269200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>155800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>799400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>290100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>250100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>489900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>693400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>499900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>650200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>376500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>362700</v>
+      </c>
+      <c r="F42" s="3">
         <v>346800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>326800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>326000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>405800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>348900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>312900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>270300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>300300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>275100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>273300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>197400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>206200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>192600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>171700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>163600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2808,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>291900</v>
+      </c>
+      <c r="F48" s="3">
         <v>293000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>284000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>281500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>279300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>282500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>59100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>69100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>66500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>62200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>61600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>60000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>56300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>53900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>50700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>47700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2851,20 +3091,26 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>60200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63760300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>60349800</v>
+      </c>
+      <c r="F54" s="3">
         <v>53074700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50591800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>49411800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>48876900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>48546500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>47364800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>45870700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>45215500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>44435600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>43117700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>41326900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>40718600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>40265300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>39047600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>37792300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3385,73 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>989800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>759800</v>
+      </c>
+      <c r="F59" s="3">
         <v>682000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>715100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>737100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>799800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>733100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>530700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>498500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>436400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>359200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>403800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>397900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>184500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>397600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>373600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>252900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3503,73 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>456800</v>
+      </c>
+      <c r="F61" s="3">
         <v>456500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>456100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>258800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>258600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>258400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>258200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>258000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>257800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>257600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>257400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>257200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>257000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>256800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>256600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>256500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58777100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>55487200</v>
+      </c>
+      <c r="F66" s="3">
         <v>48310800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45846600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44669900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>44215200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>43994400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>42957700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>41632700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>41067900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>40434500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>39086000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>37395000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>36921400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>36500500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>35435300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>34230700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3405300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3296800</v>
+      </c>
+      <c r="F72" s="3">
         <v>3209600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3172300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3079000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2961000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2844000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2730900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2601100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2476600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2322000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2290500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2175700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2051200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2037200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1903300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1789400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4983200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4862600</v>
+      </c>
+      <c r="F76" s="3">
         <v>4764000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4745200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4741900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4661700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4552000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4407100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4238000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4147600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4001200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4031700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3932000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3797200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3764900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3612300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3561600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F81" s="3">
         <v>99100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>147700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>148200</v>
       </c>
-      <c r="G81" s="3">
-        <v>147400</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J81" s="3">
         <v>143000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>159900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>155400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>154600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>34500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>114900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>124500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>133900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>113900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>76100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>280300</v>
+      </c>
+      <c r="F89" s="3">
         <v>278100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>53000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>73600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>164100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>487600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>206100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>206300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>145700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>93600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-86200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>382900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-145200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>394500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>239300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>221500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1489900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4328500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>60400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-391800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-996300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-962600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-881200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-682400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,26 +5326,26 @@
         <v>-30000</v>
       </c>
       <c r="E96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-30300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-30700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-30900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-30800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-31000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3031800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7066000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2405300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1081600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>411500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>72700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>762800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1219700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>471500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>552000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1376100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1740600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>260000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>628200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1018800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1110700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1177600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1842500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3017700</v>
+      </c>
+      <c r="F102" s="3">
         <v>763200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-80100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>545600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-155000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>162100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>121900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-348500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-298600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>507100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>41700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-238300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-199500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>192600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-147600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>396300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E8" s="3">
         <v>481500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>481800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>479800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>481400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>484100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>480700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>465600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>460800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>434200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>416800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>397100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>387000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>370700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>361900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>350600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>342300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E17" s="3">
         <v>92800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>152900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>159800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>116800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>103800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>108900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>242300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>68500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>125100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E18" s="3">
         <v>388700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>387200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>348200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>328500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>326900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>320900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>312700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>328600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>317400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>313000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>177400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>278100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>294500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>119600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>282100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>274600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>210000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-169100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-189000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-232200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-196600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-130700</v>
-      </c>
       <c r="H20" s="3">
-        <v>-128400</v>
+        <v>-122000</v>
       </c>
       <c r="I20" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-114900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-111200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-113200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-112600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-107000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-130200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-101500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-97500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-106700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-93300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-85900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-85100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E21" s="3">
         <v>204900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>160200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>156900</v>
       </c>
-      <c r="G21" s="3">
-        <v>205600</v>
-      </c>
       <c r="H21" s="3">
-        <v>203100</v>
+        <v>214400</v>
       </c>
       <c r="I21" s="3">
+        <v>211800</v>
+      </c>
+      <c r="J21" s="3">
         <v>210400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>205000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>218700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>208600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>209600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>179900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>191600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>191400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>127500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E23" s="3">
         <v>199700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>154900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>151700</v>
       </c>
-      <c r="G23" s="3">
-        <v>197800</v>
-      </c>
       <c r="H23" s="3">
-        <v>198500</v>
+        <v>206500</v>
       </c>
       <c r="I23" s="3">
+        <v>207300</v>
+      </c>
+      <c r="J23" s="3">
         <v>206000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>201600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>204800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>197000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>188800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>188700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>124900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E24" s="3">
         <v>61100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52100</v>
       </c>
-      <c r="G24" s="3">
-        <v>49600</v>
-      </c>
       <c r="H24" s="3">
-        <v>49800</v>
+        <v>58900</v>
       </c>
       <c r="I24" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J24" s="3">
         <v>58700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E26" s="3">
         <v>138600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>117200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>99600</v>
       </c>
-      <c r="G26" s="3">
-        <v>148200</v>
-      </c>
       <c r="H26" s="3">
-        <v>148700</v>
+        <v>147600</v>
       </c>
       <c r="I26" s="3">
+        <v>148100</v>
+      </c>
+      <c r="J26" s="3">
         <v>147300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>143500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>160800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>155400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>154600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>133900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>113900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E27" s="3">
         <v>138200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>116700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>99100</v>
       </c>
-      <c r="G27" s="3">
-        <v>147700</v>
-      </c>
       <c r="H27" s="3">
-        <v>148200</v>
+        <v>147100</v>
       </c>
       <c r="I27" s="3">
+        <v>147600</v>
+      </c>
+      <c r="J27" s="3">
         <v>146800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>143000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>159900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>155400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>154600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>124500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>133900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>113900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,11 +1964,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1916,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>2000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E32" s="3">
         <v>189000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>232200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>196600</v>
       </c>
-      <c r="G32" s="3">
-        <v>130700</v>
-      </c>
       <c r="H32" s="3">
-        <v>128400</v>
+        <v>122000</v>
       </c>
       <c r="I32" s="3">
+        <v>119600</v>
+      </c>
+      <c r="J32" s="3">
         <v>114900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>111200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>113200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>112600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>107000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>130200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>101500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>97500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>106700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>93300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>85900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>85100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E33" s="3">
         <v>138200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>116700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>99100</v>
       </c>
-      <c r="G33" s="3">
-        <v>147700</v>
-      </c>
       <c r="H33" s="3">
-        <v>148200</v>
+        <v>147100</v>
       </c>
       <c r="I33" s="3">
+        <v>147600</v>
+      </c>
+      <c r="J33" s="3">
         <v>146800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>159900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>155400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>124500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>133900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>113900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E35" s="3">
         <v>138200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>116700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>99100</v>
       </c>
-      <c r="G35" s="3">
-        <v>147700</v>
-      </c>
       <c r="H35" s="3">
-        <v>148200</v>
+        <v>147100</v>
       </c>
       <c r="I35" s="3">
+        <v>147600</v>
+      </c>
+      <c r="J35" s="3">
         <v>146800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>159900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>155400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>124500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>133900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>113900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12209000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6255500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4475700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1480700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>702300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>798500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>204900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>404700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>799400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>290100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>250100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>489900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>693400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>499900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>650200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E42" s="3">
         <v>376500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>362700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>346800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>326800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>326000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>405800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>348900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>270300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>275100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>273300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>197400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>206200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>192600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>171700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>163600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E48" s="3">
         <v>295700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>291900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>293000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>284000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>279300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>282500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3097,20 +3216,23 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>60200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73888300</v>
+      </c>
+      <c r="E54" s="3">
         <v>63760300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60349800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53074700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50591800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49411800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48876900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48546500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47364800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45870700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45215500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44435600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43117700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41326900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40718600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40265300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39047600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37792300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>928300</v>
+      </c>
+      <c r="E59" s="3">
         <v>989800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>759800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>682000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>715100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>737100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>799800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>733100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>530700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>498500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>436400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>359200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>403800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>397900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>397600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>373600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>252900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,67 +3648,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>828600</v>
+      </c>
+      <c r="E61" s="3">
         <v>457200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>456800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>456500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>456100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>258800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>258600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>258400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>257800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>257600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>257400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>257200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>256800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>256600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>256500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68061400</v>
+      </c>
+      <c r="E66" s="3">
         <v>58777100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55487200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48310800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45846600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44669900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44215200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43994400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42957700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41632700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41067900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40434500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39086000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37395000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36921400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36500500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35435300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34230700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3548300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3405300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3296800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3209600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3172300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3079000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2961000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2844000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2730900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2601100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2476600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2322000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2290500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2175700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2051200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2037200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1903300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1789400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5826900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4983200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4862600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4764000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4745200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4741900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4661700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4552000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4407100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4238000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4147600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4001200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4031700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3932000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3797200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3764900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3612300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3561600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E81" s="3">
         <v>138200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>116700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>99100</v>
       </c>
-      <c r="G81" s="3">
-        <v>147700</v>
-      </c>
       <c r="H81" s="3">
-        <v>148200</v>
+        <v>147100</v>
       </c>
       <c r="I81" s="3">
+        <v>147600</v>
+      </c>
+      <c r="J81" s="3">
         <v>146800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>159900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>155400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>124500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>133900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>113900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5300</v>
       </c>
       <c r="F83" s="3">
         <v>5300</v>
       </c>
       <c r="G83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
       </c>
       <c r="L83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2600</v>
       </c>
       <c r="T83" s="3">
         <v>2600</v>
       </c>
       <c r="U83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>280300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>278100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>73600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>164100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>487600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>145700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-86200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>382900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-145200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>394500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>239300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>221500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4139900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>60400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-391800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-996300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-962600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-881200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-682400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5332,23 +5565,23 @@
         <v>-30000</v>
       </c>
       <c r="G96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-30300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10029600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3031800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7066000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2405300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1081600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>411500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>72700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>762800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1219700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>471500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>552000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1376100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1740600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>260000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>628200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1018800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1110700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1177600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5935100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1842500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3017700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>763200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>545600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-155000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>162100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>121900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-348500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-298600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>507100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-238300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-199500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>192600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-147600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>396300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>491500</v>
+      </c>
+      <c r="E8" s="3">
         <v>488600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>481500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>481800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>479800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>481400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>484100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>480700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>465600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>460800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>434200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>416800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>387000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>370700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>361900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>350600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>342300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>335100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E17" s="3">
         <v>93600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>152900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>159800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>103800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>242300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>68500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>125100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E18" s="3">
         <v>395000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>388700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>387200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>348200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>328500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>326900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>320900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>328600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>317400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>313000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>177400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>278100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>294500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>119600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>282100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>274600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>210000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-164500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-169100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-189000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-232200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-196600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-122000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-119600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-114900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-111200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-113200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-112600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-107000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-130200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-101500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-97500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-106700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-93300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-85900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-85100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E21" s="3">
         <v>230800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>160200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>156900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>214400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>211800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>210400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>205000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>218700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>208600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>209600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>179900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>191600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>191400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>127500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E23" s="3">
         <v>225900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>199700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>154900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>151700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>206500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>207300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>206000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>201600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>215400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>204800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>206100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>176600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>197000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>188800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>188700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>124900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E24" s="3">
         <v>52900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>59200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E26" s="3">
         <v>173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>138600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>117200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>99600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>147600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>148100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>160800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>155400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>154600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>133900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>113900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E27" s="3">
         <v>172700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>138200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>116700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>99100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>147100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>147600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>146800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>159900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>155400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>154600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>124500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>133900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>113900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,40 +1996,43 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1979,12 +2040,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E32" s="3">
         <v>169100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>189000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>232200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>196600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>122000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>119600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>114900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>111200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>113200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>112600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>107000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>130200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>101500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>97500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>106700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>93300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>85900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>85100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E33" s="3">
         <v>172700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>138200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>116700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>99100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>147100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>147600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>146800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>159900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>155400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>124500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>113900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E35" s="3">
         <v>172700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>138200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>116700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>99100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>147100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>147600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>146800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>159900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>155400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>124500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>113900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19528800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12209000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6255500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4475700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1480700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>702300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>798500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>204900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>404700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>269200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>155800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>799400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>290100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>250100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>489900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>693400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>499900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>650200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E42" s="3">
         <v>311000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>376500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>362700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>346800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>326800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>326000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>405800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>348900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>312900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>270300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>300300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>275100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>273300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>197400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>206200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>192600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>171700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>163600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E48" s="3">
         <v>317700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>295700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>291900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>293000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>284000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>281500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>279300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>282500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>69100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>61600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3219,20 +3339,23 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>60200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85382200</v>
+      </c>
+      <c r="E54" s="3">
         <v>73888300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63760300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60349800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53074700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50591800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49411800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48876900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48546500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47364800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45870700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45215500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44435600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43117700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41326900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40718600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40265300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39047600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37792300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1021800</v>
+      </c>
+      <c r="E59" s="3">
         <v>928300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>989800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>759800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>682000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>715100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>737100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>799800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>733100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>530700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>436400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>359200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>403800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>397900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>184500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>397600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>373600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>252900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,70 +3791,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>829100</v>
+      </c>
+      <c r="E61" s="3">
         <v>828600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>457200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>456800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>456500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>456100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>258800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>258600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>257800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>257600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>257400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>256800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>256600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>256500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78739800</v>
+      </c>
+      <c r="E66" s="3">
         <v>68061400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58777100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55487200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48310800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45846600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44669900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44215200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43994400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42957700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41632700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41067900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40434500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39086000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37395000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36921400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36500500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35435300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34230700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3698200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3548300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3405300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3296800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3209600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3172300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3079000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2961000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2844000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2730900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2601100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2476600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2322000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2290500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2175700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2051200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2037200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1903300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1789400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6642400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5826900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4983200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4862600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4764000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4745200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4741900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4661700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4552000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4407100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4238000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4147600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4001200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4031700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3932000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3797200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3764900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3612300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3561600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E81" s="3">
         <v>172700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>138200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>116700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>99100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>147100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>147600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>146800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>159900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>155400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>124500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>113900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,61 +5028,64 @@
         <v>4900</v>
       </c>
       <c r="E83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5300</v>
       </c>
       <c r="G83" s="3">
         <v>5300</v>
       </c>
       <c r="H83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3400</v>
       </c>
       <c r="L83" s="3">
         <v>3400</v>
       </c>
       <c r="M83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2600</v>
       </c>
       <c r="U83" s="3">
         <v>2600</v>
       </c>
       <c r="V83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>698900</v>
+      </c>
+      <c r="E89" s="3">
         <v>45400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>280300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>278100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>73600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>164100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>487600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>93600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-86200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>382900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-145200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>394500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>239300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>221500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4511800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>60400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-391800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-996300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-962600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-881200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-682400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,13 +5783,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="E96" s="3">
         <v>-30000</v>
@@ -5568,23 +5802,23 @@
         <v>-30000</v>
       </c>
       <c r="H96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-30300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11212900</v>
+      </c>
+      <c r="E100" s="3">
         <v>10029600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3031800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7066000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2405300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1081600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>411500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>72700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>762800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1219700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>471500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>552000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1376100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1740600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>260000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>628200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1018800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1110700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1177600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5935100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1842500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3017700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>763200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>545600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-155000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>162100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>121900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-348500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-298600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>507100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-238300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-199500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>192600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-147600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>396300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>536800</v>
+      </c>
+      <c r="E8" s="3">
         <v>491500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>488600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>481500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>481800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>479800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>481400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>484100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>480700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>465600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>460800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>434200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>416800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>387000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>370700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>361900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>350600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>342300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>335100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85000</v>
+        <v>87900</v>
       </c>
       <c r="E17" s="3">
+        <v>115900</v>
+      </c>
+      <c r="F17" s="3">
         <v>93600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>131600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>152900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>159800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>103800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>219700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>76200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>242300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>68500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>125100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>406500</v>
+        <v>448900</v>
       </c>
       <c r="E18" s="3">
+        <v>375600</v>
+      </c>
+      <c r="F18" s="3">
         <v>395000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>388700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>387200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>348200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>328500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>326900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>320900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>312700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>328600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>317400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>313000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>177400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>278100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>294500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>119600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>282100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>274600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>210000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-164500</v>
+        <v>-148600</v>
       </c>
       <c r="E20" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-169100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-189000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-232200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-196600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-122000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-119600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-114900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-111200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-113200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-112600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-107000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-130200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-101500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-97500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-106700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-93300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-85900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-85100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>305200</v>
+      </c>
+      <c r="E21" s="3">
         <v>246900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>230800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>160200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>156900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>214400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>211800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>205000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>208600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>209600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>179900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>191600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>191400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>127500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300300</v>
+      </c>
+      <c r="E23" s="3">
         <v>241900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>225900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>199700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>154900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>151700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>206500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>207300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>206000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>201600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>204800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>206100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>176600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>197000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>188800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>188700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>124900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E24" s="3">
         <v>51400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>58900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>74800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E26" s="3">
         <v>190500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>138600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>117200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>99600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>147600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>148100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>160800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>155400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>154600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>133900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>113900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E27" s="3">
         <v>179700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>172700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>138200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>99100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>147100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>147600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>143000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>159900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>155400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>154600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>124500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>133900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>113900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>76100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,17 +2086,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2043,12 +2104,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>2000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>164500</v>
+        <v>148600</v>
       </c>
       <c r="E32" s="3">
+        <v>133600</v>
+      </c>
+      <c r="F32" s="3">
         <v>169100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>189000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>232200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>196600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>122000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>119600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>114900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>111200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>113200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>112600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>107000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>130200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>101500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>97500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>106700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>93300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>85900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>85100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E33" s="3">
         <v>179700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>172700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>138200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>99100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>147100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>147600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>159900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>155400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>124500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>113900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>76100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E35" s="3">
         <v>179700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>172700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>138200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>99100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>147100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>147600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>159900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>155400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>124500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>113900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>76100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24811600</v>
+      </c>
+      <c r="E41" s="3">
         <v>19528800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12209000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6255500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4475700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1480700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>702300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>798500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>404700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>269200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>155800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>799400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>290100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>250100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>489900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>693400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>499900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>650200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E42" s="3">
         <v>388600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>311000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>376500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>362700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>346800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>326800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>326000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>405800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>348900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>312900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>270300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>275100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>273300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>197400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>206200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>192600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>171700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>163600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>313500</v>
+      </c>
+      <c r="E48" s="3">
         <v>321000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>317700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>295700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>291900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>293000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>284000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>281500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>279300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>282500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>69100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>61600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3342,20 +3462,23 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>60200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96887800</v>
+      </c>
+      <c r="E54" s="3">
         <v>85382200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73888300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63760300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60349800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53074700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50591800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49411800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48876900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48546500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47364800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45870700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45215500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44435600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43117700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41326900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40718600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40265300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39047600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37792300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,73 +3798,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1021800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>928300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>989800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>759800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>682000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>715100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>737100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>799800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>733100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>530700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>498500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>436400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>359200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>403800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>397900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>184500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>397600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>373600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>252900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,73 +3934,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>569500</v>
+      </c>
+      <c r="E61" s="3">
         <v>829100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>828600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>457200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>456800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>456500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>456100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>258800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>257800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>257600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>257000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>256800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>256600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>256500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90043200</v>
+      </c>
+      <c r="E66" s="3">
         <v>78739800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68061400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58777100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55487200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48310800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45846600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44669900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44215200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43994400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42957700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41632700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41067900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40434500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39086000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37395000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36921400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36500500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35435300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34230700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3871100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3698200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3548300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3405300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3296800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3209600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3172300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3079000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2961000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2844000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2730900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2601100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2476600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2290500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2175700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2051200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2037200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1903300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1789400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6844600</v>
+      </c>
+      <c r="E76" s="3">
         <v>6642400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5826900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4983200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4862600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4764000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4745200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4741900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4661700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4552000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4407100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4238000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4147600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4001200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4031700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3932000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3797200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3764900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3612300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3561600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E81" s="3">
         <v>179700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>172700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>138200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>99100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>147100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>147600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>159900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>155400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>124500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>113900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>76100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,61 +5230,64 @@
         <v>4900</v>
       </c>
       <c r="F83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G83" s="3">
         <v>5200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5300</v>
       </c>
       <c r="H83" s="3">
         <v>5300</v>
       </c>
       <c r="I83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3400</v>
       </c>
       <c r="M83" s="3">
         <v>3400</v>
       </c>
       <c r="N83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O83" s="3">
         <v>3800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2800</v>
-      </c>
-      <c r="U83" s="3">
-        <v>2600</v>
       </c>
       <c r="V83" s="3">
         <v>2600</v>
       </c>
       <c r="W83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>698900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>280300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>278100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>73600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>487600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>145700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>93600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-86200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>382900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-145200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>394500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>239300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>221500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6101800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>60400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-391800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-996300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-962600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-881200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-682400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,16 +6017,17 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-30000</v>
       </c>
       <c r="F96" s="3">
         <v>-30000</v>
@@ -5805,23 +6039,23 @@
         <v>-30000</v>
       </c>
       <c r="I96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-30300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11287000</v>
+      </c>
+      <c r="E100" s="3">
         <v>11212900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10029600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3031800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7066000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2405300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1081600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>411500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>762800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1219700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>471500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>552000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1376100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1740600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>260000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>628200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1018800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1110700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1177600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5231700</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5935100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1842500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3017700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>763200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-80100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>545600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-155000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>162100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>121900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-348500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-298600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>507100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>41700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-238300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-199500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>192600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-147600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>396300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>555700</v>
+      </c>
+      <c r="E8" s="3">
         <v>536800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>491500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>488600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>481500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>481800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>479800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>481400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>484100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>480700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>465600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>460800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>434200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>416800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>397100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>387000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>370700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>361900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>350600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>342300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>335100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E17" s="3">
         <v>87900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>131600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>159800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>152900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>103800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>219700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>76200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>242300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>68500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>125100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>476900</v>
+      </c>
+      <c r="E18" s="3">
         <v>448900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>375600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>395000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>388700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>387200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>348200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>328500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>326900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>320900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>312700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>328600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>317400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>313000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>177400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>278100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>294500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>119600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>282100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>274600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>210000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-148600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-133600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-169100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-189000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-232200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-196600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-122000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-119600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-114900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-111200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-113200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-112600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-130200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-101500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-97500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-106700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-93300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-85900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-85100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>332300</v>
+      </c>
+      <c r="E21" s="3">
         <v>305200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>246900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>230800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>160200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>214400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>210400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>205000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>208600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>209600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>179900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>191600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>191400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>127500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>241900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>225900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>199700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>154900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>151700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>206500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>207300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>206000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>201600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>204800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>206100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>176600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>197000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>188800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>188700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>124900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E24" s="3">
         <v>85800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>49300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>74800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>48700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>241400</v>
+      </c>
+      <c r="E26" s="3">
         <v>214500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>190500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>173000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>138600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>117200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>99600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>160800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>155400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>154600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>112900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>124500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>133900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>113900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>76100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E27" s="3">
         <v>205100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>172700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>138200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>99100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>147100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>143000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>159900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>155400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>154600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>124500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>133900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>113900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>76100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,17 +2150,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2107,12 +2168,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>2000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E32" s="3">
         <v>148600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>133600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>169100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>189000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>232200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>196600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>122000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>119600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>114900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>111200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>113200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>112600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>107000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>130200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>101500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>97500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>106700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>93300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>85900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>85100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E33" s="3">
         <v>205100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>172700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>138200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>116700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>99100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>147100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>159900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>155400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>154600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>124500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>113900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>76100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E35" s="3">
         <v>205100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>172700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>138200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>116700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>99100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>147100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>159900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>155400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>154600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>124500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>113900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>76100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28641700</v>
+      </c>
+      <c r="E41" s="3">
         <v>24811600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19528800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12209000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6255500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4475700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1480700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>702300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>798500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>204900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>404700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>269200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>155800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>799400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>290100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>250100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>489900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>693400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>499900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>650200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E42" s="3">
         <v>340200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>388600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>311000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>376500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>362700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>346800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>326800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>326000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>405800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>348900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>312900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>270300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>275100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>273300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>197400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>206200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>192600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>171700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>163600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E48" s="3">
         <v>313500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>321000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>317700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>295700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>291900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>293000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>284000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>281500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>279300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>282500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>69100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>61600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>47700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3465,20 +3585,23 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>60200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107850700</v>
+      </c>
+      <c r="E54" s="3">
         <v>96887800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85382200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73888300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63760300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60349800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53074700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>50591800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49411800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48876900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48546500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47364800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45870700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45215500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44435600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43117700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41326900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40718600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40265300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39047600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37792300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3935,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1221100</v>
+      </c>
+      <c r="E59" s="3">
         <v>997000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1021800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>928300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>989800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>759800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>682000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>715100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>737100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>799800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>733100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>530700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>498500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>436400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>359200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>403800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>397900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>397600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>373600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>252900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,76 +4077,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>569900</v>
+      </c>
+      <c r="E61" s="3">
         <v>569500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>829100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>828600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>457200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>456800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>456500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>456100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>257800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>257200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>257000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>256800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>256600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>256500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100171600</v>
+      </c>
+      <c r="E66" s="3">
         <v>90043200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78739800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68061400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58777100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55487200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48310800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45846600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44669900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44215200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43994400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42957700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41632700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41067900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40434500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39086000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37395000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36921400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36500500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35435300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34230700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4069700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3871100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3698200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3548300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3405300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3296800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3209600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3172300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3079000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2961000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2844000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2730900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2601100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2476600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2322000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2290500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2175700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2051200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2037200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1903300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1789400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7679100</v>
+      </c>
+      <c r="E76" s="3">
         <v>6844600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6642400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5826900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4983200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4862600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4764000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4745200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4741900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4661700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4552000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4407100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4238000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4147600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4001200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4031700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3932000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3797200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3764900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3612300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3561600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E81" s="3">
         <v>205100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>172700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>138200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>116700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>99100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>147100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>159900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>155400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>154600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>124500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>113900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>76100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="E83" s="3">
         <v>4900</v>
@@ -5233,61 +5432,64 @@
         <v>4900</v>
       </c>
       <c r="G83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H83" s="3">
         <v>5200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5300</v>
       </c>
       <c r="I83" s="3">
         <v>5300</v>
       </c>
       <c r="J83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3400</v>
       </c>
       <c r="N83" s="3">
         <v>3400</v>
       </c>
       <c r="O83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>2600</v>
       </c>
       <c r="W83" s="3">
         <v>2600</v>
       </c>
       <c r="X83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-291100</v>
+      </c>
+      <c r="E89" s="3">
         <v>46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>698900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>280300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>278100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>53000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>73600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>164100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>487600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>145700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-86200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>382900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-145200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>394500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>239300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>221500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6368800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>60400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-391800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-996300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-962600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-881200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-682400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,19 +6251,20 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-32400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-30000</v>
       </c>
       <c r="G96" s="3">
         <v>-30000</v>
@@ -6042,23 +6276,23 @@
         <v>-30000</v>
       </c>
       <c r="J96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10515700</v>
+      </c>
+      <c r="E100" s="3">
         <v>11287000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11212900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10029600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3031800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7066000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2405300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1081600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>411500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>762800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1219700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>471500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>552000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1376100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1740600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>260000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>628200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1018800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1110700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1177600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3855700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5231700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5935100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1842500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3017700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>763200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-80100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>545600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-155000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>162100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>121900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-348500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-298600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>507100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>41700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-238300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-199500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>192600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-147600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>396300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>606300</v>
+      </c>
+      <c r="E8" s="3">
         <v>555700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>536800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>491500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>488600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>481500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>481800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>479800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>481400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>484100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>480700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>465600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>460800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>434200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>416800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>397100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>387000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>370700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>361900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>350600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>342300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>335100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E17" s="3">
         <v>78800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>94600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>131600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>159800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>152900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>103800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>76200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>242300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>68500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>125100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E18" s="3">
         <v>476900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>448900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>375600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>395000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>388700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>387200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>348200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>328500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>326900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>320900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>312700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>328600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>317400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>313000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>177400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>278100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>294500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>119600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>282100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>274600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>210000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-149900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-148600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-133600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-169100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-189000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-232200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-196600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-122000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-119600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-114900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-111200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-113200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-112600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-107000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-130200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-101500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-97500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-106700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-93300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-85900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-85100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E21" s="3">
         <v>332300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>305200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>246900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>230800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>204900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>156900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>214400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>211800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>210400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>205000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>208600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>209600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>179900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>191600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>191400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>127500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>378600</v>
+      </c>
+      <c r="E23" s="3">
         <v>327000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>241900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>225900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>199700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>154900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>151700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>206500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>207300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>201600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>204800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>206100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>176600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>197000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>188800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>188700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>124900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E24" s="3">
         <v>85600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>74800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E26" s="3">
         <v>241400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>214500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>190500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>173000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>138600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>117200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>99600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>143500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>160800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>155400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>154600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>112900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>124500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>133900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>113900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>76100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E27" s="3">
         <v>232100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>205100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>172700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>138200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>116700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>143000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>159900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>155400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>154600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>124500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>133900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>113900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>76100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,17 +2213,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2171,12 +2231,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>2000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E32" s="3">
         <v>149900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>148600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>133600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>169100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>189000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>232200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>196600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>122000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>119600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>114900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>111200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>113200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>112600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>107000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>130200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>101500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>97500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>106700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>93300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>85900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>85100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E33" s="3">
         <v>232100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>205100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>172700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>138200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>116700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>99100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>159900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>155400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>154600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>124500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>133900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>113900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>76100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E35" s="3">
         <v>232100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>205100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>172700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>138200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>116700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>99100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>159900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>155400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>154600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>124500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>133900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>113900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>76100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29547600</v>
+      </c>
+      <c r="E41" s="3">
         <v>28641700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24811600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19528800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12209000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6255500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4475700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1480700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>702300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>798500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>204900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>404700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>269200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>799400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>290100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>250100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>489900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>693400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>499900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>650200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>239800</v>
+      </c>
+      <c r="E42" s="3">
         <v>361600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>340200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>388600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>311000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>376500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>362700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>346800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>326800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>326000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>405800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>348900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>312900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>270300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>275100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>273300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>197400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>206200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>192600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>171700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>163600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3349,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>318200</v>
+      </c>
+      <c r="E48" s="3">
         <v>311400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>313500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>321000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>317700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>295700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>291900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>293000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>284000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>281500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>279300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>282500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>69100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>66500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>61600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>56300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>53900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>47700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3588,20 +3707,23 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>60200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118445400</v>
+      </c>
+      <c r="E54" s="3">
         <v>107850700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96887800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85382200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73888300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63760300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60349800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53074700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50591800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49411800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48876900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48546500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47364800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45870700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45215500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44435600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43117700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41326900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40718600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40265300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39047600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37792300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,79 +4071,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1221100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>997000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1021800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>928300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>989800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>759800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>682000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>715100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>737100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>799800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>733100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>530700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>498500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>436400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>359200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>403800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>397900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>184500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>397600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>373600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>252900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,79 +4219,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>570200</v>
+      </c>
+      <c r="E61" s="3">
         <v>569900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>569500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>829100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>828600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>457200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>456800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>456500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>456100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>257400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>257200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>256800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>256600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>256500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110604800</v>
+      </c>
+      <c r="E66" s="3">
         <v>100171600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90043200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78739800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68061400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58777100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55487200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48310800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45846600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44669900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44215200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43994400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42957700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41632700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41067900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40434500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39086000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37395000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36921400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36500500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>35435300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34230700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4298500</v>
+      </c>
+      <c r="E72" s="3">
         <v>4069700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3871100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3698200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3548300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3405300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3296800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3209600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3172300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3079000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2961000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2844000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2730900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2601100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2476600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2322000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2290500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2175700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2051200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2037200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1903300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1789400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7840600</v>
+      </c>
+      <c r="E76" s="3">
         <v>7679100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6844600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6642400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5826900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4983200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4862600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4764000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4745200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4741900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4661700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4552000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4407100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4238000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4147600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4001200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4031700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3932000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3797200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3764900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3612300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3561600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E81" s="3">
         <v>232100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>205100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>172700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>138200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>116700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>159900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>155400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>154600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>124500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>133900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>113900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>76100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5614,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4900</v>
       </c>
       <c r="F83" s="3">
         <v>4900</v>
@@ -5435,61 +5633,64 @@
         <v>4900</v>
       </c>
       <c r="H83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I83" s="3">
         <v>5200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5300</v>
       </c>
       <c r="J83" s="3">
         <v>5300</v>
       </c>
       <c r="K83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3400</v>
       </c>
       <c r="O83" s="3">
         <v>3400</v>
       </c>
       <c r="P83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2800</v>
-      </c>
-      <c r="W83" s="3">
-        <v>2600</v>
       </c>
       <c r="X83" s="3">
         <v>2600</v>
       </c>
       <c r="Y83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-291100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>698900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>280300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>278100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>73600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>164100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>487600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>145700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-86200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>382900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-145200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>394500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>239300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>221500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10138700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6368800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>60400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-391800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-996300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-962600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-881200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-682400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,22 +6484,23 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-33800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-32400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-30000</v>
       </c>
       <c r="H96" s="3">
         <v>-30000</v>
@@ -6279,23 +6512,23 @@
         <v>-30000</v>
       </c>
       <c r="K96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-30300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-30800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10498300</v>
+      </c>
+      <c r="E100" s="3">
         <v>10515700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11287000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11212900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10029600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3031800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7066000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2405300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1081600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>411500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>762800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1219700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>471500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>552000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1376100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1740600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>260000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>628200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1018800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1110700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1177600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3855700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5231700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5935100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1842500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3017700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>763200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>545600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>162100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>121900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-348500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-298600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>507100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>41700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-238300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-199500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>192600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-147600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>396300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,191 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>642200</v>
+      </c>
+      <c r="E8" s="3">
         <v>606300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>555700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>536800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>491500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>488600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>481500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>481800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>481400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>484100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>480700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>465600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>460800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>434200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>416800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>397100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>387000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>370700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>361900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>350600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>342300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>335100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +922,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E17" s="3">
         <v>77300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>87900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>94600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>157200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>159800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>103800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>76200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>242300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>68500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>125100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>570900</v>
+      </c>
+      <c r="E18" s="3">
         <v>529000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>476900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>448900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>375600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>395000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>388700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>387200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>348200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>328500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>326900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>320900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>312700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>328600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>317400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>313000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>177400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>278100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>294500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>119600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>282100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>274600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>210000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1547,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-150500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-149900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-148600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-133600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-169100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-189000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-232200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-196600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-122000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-119600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-114900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-111200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-113200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-112600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-107000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-130200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-101500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-97500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-106700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-93300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-85900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-85100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>417500</v>
+      </c>
+      <c r="E21" s="3">
         <v>384400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>332300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>305200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>246900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>230800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>204900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>214400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>211800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>210400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>205000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>218700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>208600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>209600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>179900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>191600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>191400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>127500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1776,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>411900</v>
+      </c>
+      <c r="E23" s="3">
         <v>378600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>327000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>241900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>225900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>199700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>154900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>151700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>206500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>207300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>206000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>201600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>204800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>206100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>176600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>197000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>188800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>188700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>124900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E24" s="3">
         <v>106600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>51400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>49300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>74800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>48700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E26" s="3">
         <v>272000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>241400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>214500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>190500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>173000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>138600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>117200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>147300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>160800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>155400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>154600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>112900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>124500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>133900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>113900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E27" s="3">
         <v>263700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>232100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>205100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>179700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>172700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>138200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>146800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>159900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>155400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>154600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>112900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>124500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>133900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>113900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>76100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,17 +2276,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2234,12 +2294,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>2000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E32" s="3">
         <v>150500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>149900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>148600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>133600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>169100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>189000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>232200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>196600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>122000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>119600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>114900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>111200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>113200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>112600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>107000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>130200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>101500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>97500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>106700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>93300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>85900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>85100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E33" s="3">
         <v>263700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>232100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>205100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>172700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>138200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>116700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>146800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>159900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>155400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>154600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>114900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>124500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>133900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>113900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>76100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E35" s="3">
         <v>263700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>232100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>205100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>172700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>138200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>116700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>146800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>159900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>155400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>154600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>114900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>124500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>133900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>113900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>76100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2919,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26220500</v>
+      </c>
+      <c r="E41" s="3">
         <v>29547600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28641700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24811600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19528800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12209000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6255500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4475700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1480700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>702300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>798500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>204900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>404700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>269200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>155800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>799400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>290100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>250100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>489900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>693400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>499900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>650200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E42" s="3">
         <v>239800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>361600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>340200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>388600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>311000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>376500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>362700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>346800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>326800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>326000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>405800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>348900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>312900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>270300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>300300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>275100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>273300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>197400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>206200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>192600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>171700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>163600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3148,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3225,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3302,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3379,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,82 +3456,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E48" s="3">
         <v>318200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>311400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>313500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>321000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>317700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>295700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>291900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>293000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>284000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>281500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>279300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>282500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>69100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>66500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>61600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>60000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>56300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>53900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>47700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3764,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3710,20 +3829,23 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>60200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121847300</v>
+      </c>
+      <c r="E54" s="3">
         <v>118445400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107850700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96887800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85382200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73888300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63760300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60349800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53074700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50591800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49411800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48876900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48546500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47364800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45870700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45215500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44435600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43117700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41326900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40718600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40265300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39047600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37792300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4055,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4130,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,82 +4207,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1112500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1221100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>997000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1021800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>928300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>989800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>759800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>682000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>715100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>737100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>799800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>733100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>530700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>498500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>436400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>359200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>403800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>397900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>184500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>397600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>373600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>252900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,82 +4361,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>570600</v>
+      </c>
+      <c r="E61" s="3">
         <v>570200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>569900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>569500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>829100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>828600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>457200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>456800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>456500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>456100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>258000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>257600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>257400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>257000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>256800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>256600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>256500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4515,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113674100</v>
+      </c>
+      <c r="E66" s="3">
         <v>110604800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100171600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90043200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78739800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68061400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58777100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55487200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48310800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45846600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44669900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44215200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43994400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42957700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41632700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41067900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40434500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39086000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37395000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36921400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>36500500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>35435300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34230700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4592700</v>
+      </c>
+      <c r="E72" s="3">
         <v>4298500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4069700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3871100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3698200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3548300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3405300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3296800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3209600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3172300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3079000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2961000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2844000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2730900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2601100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2476600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2322000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2290500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2175700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2051200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2037200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1903300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1789400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8173200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7840600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7679100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6844600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6642400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5826900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4983200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4862600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4764000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4745200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4741900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4661700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4552000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4407100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4238000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4147600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4001200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4031700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3932000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3797200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3764900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3612300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3561600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E81" s="3">
         <v>263700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>232100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>205100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>172700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>138200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>116700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>146800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>159900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>155400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>154600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>114900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>124500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>133900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>113900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>76100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,19 +5812,20 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4900</v>
       </c>
       <c r="G83" s="3">
         <v>4900</v>
@@ -5636,61 +5834,64 @@
         <v>4900</v>
       </c>
       <c r="I83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J83" s="3">
         <v>5200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5300</v>
       </c>
       <c r="K83" s="3">
         <v>5300</v>
       </c>
       <c r="L83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3400</v>
       </c>
       <c r="P83" s="3">
         <v>3400</v>
       </c>
       <c r="Q83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2800</v>
-      </c>
-      <c r="X83" s="3">
-        <v>2600</v>
       </c>
       <c r="Y83" s="3">
         <v>2600</v>
       </c>
       <c r="Z83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="E89" s="3">
         <v>425400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-291100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>698900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>280300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>278100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>73600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>164100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>487600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>145700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>93600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-86200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>382900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-145200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>394500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>239300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>221500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6609100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10138700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6368800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>60400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-391800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-996300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-962600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-881200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-682400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,25 +6717,26 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-33800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-32400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-30000</v>
       </c>
       <c r="I96" s="3">
         <v>-30000</v>
@@ -6515,23 +6748,23 @@
         <v>-30000</v>
       </c>
       <c r="L96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-30300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-30900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-30800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7023,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3479500</v>
+      </c>
+      <c r="E100" s="3">
         <v>10498300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10515700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11287000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11212900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10029600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3031800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7066000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2405300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1081600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>411500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>762800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1219700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>471500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>552000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1376100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1740600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>260000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>628200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1018800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1110700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1177600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7177,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3296400</v>
+      </c>
+      <c r="E102" s="3">
         <v>785000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3855700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5231700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5935100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1842500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3017700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>763200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-80100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>545600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>162100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>121900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-348500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-298600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>507100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>41700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-238300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-199500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>192600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-147600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>396300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,197 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>774600</v>
+      </c>
+      <c r="E8" s="3">
         <v>642200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>606300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>555700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>536800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>491500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>488600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>481500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>481800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>479800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>481400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>484100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>480700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>465600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>460800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>434200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>416800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>397100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>387000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>370700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>361900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>350600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>342300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>335100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,8 +931,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,8 +1043,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1201,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1281,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E17" s="3">
         <v>71300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>87900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>93600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>152900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>159800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>152900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>103800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>219700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>76200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>242300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>68500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>125100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>644900</v>
+      </c>
+      <c r="E18" s="3">
         <v>570900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>529000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>476900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>448900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>375600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>395000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>388700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>387200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>328500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>326900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>320900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>312700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>328600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>317400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>313000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>177400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>278100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>294500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>119600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>282100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>274600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>210000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,162 +1580,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-172400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-159000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-150500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-149900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-148600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-133600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-169100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-189000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-232200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-196600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-122000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-119600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-114900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-113200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-112600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-107000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-130200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-101500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-97500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-106700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-93300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-85900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-85100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>478300</v>
+      </c>
+      <c r="E21" s="3">
         <v>417500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>384400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>332300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>305200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>246900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>230800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>204900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>156900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>214400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>210400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>205000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>218700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>208600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>209600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>50500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>179900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>191600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>191400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>127500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1779,162 +1818,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>472500</v>
+      </c>
+      <c r="E23" s="3">
         <v>411900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>378600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>327000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>241900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>225900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>199700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>154900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>151700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>207300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>206000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>201600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>215400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>204800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>206100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>176600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>197000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>188800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>188700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>124900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E24" s="3">
         <v>73400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>106600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>51400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>49300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>72500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>54900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>74800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>48700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>339200</v>
+      </c>
+      <c r="E26" s="3">
         <v>338500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>272000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>241400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>214500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>190500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>173000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>138600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>117200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>148100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>160800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>155400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>154600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>112900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>124500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>133900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>113900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>76100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E27" s="3">
         <v>329200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>263700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>232100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>205100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>179700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>172700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>138200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>146800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>159900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>155400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>154600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>112900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>124500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>133900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>113900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>76100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2279,17 +2339,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2297,12 +2357,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>2000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2318,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E32" s="3">
         <v>159000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>150500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>149900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>148600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>133600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>169100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>189000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>232200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>196600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>122000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>119600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>114900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>111200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>113200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>112600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>107000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>130200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>101500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>97500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>106700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>93300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>85900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>85100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E33" s="3">
         <v>329200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>263700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>232100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>205100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>172700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>138200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>147600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>146800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>159900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>155400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>154600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>124500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>133900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>113900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>76100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E35" s="3">
         <v>329200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>263700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>232100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>205100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>172700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>138200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>147600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>146800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>159900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>155400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>154600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>124500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>133900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>113900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>76100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,162 +3005,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14497500</v>
+      </c>
+      <c r="E41" s="3">
         <v>26220500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29547600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28641700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24811600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19528800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12209000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6255500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4475700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1480700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>702300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>798500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>204900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>404700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>269200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>155800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>799400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>290100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>250100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>489900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>693400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>499900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>650200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E42" s="3">
         <v>262700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>239800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>361600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>340200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>388600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>311000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>376500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>362700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>346800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>326800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>326000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>405800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>348900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>312900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>270300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>300300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>275100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>273300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>197400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>206200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>192600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>171700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>163600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3151,8 +3243,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3228,8 +3323,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3305,8 +3403,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3382,8 +3483,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,85 +3563,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E48" s="3">
         <v>331100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>318200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>311400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>313500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>321000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>317700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>295700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>291900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>293000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>284000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>281500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>279300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>282500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>69100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>66500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>62200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>61600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>60000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>56300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>53900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>50700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>47700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3613,8 +3723,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,8 +3883,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3832,20 +3951,23 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>60200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115966800</v>
+      </c>
+      <c r="E54" s="3">
         <v>121847300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118445400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107850700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96887800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85382200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>73888300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63760300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60349800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53074700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50591800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49411800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48876900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48546500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47364800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45870700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45215500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44435600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43117700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41326900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40718600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40265300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>39047600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37792300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,8 +4185,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4133,8 +4263,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4210,85 +4343,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1520500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1348900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1112500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1221100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>997000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1021800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>928300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>989800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>759800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>682000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>715100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>737100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>799800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>733100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>530700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>498500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>436400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>359200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>403800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>397900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>184500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>397600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>373600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>252900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4364,85 +4503,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>570900</v>
+      </c>
+      <c r="E61" s="3">
         <v>570600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>570200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>569900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>569500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>829100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>828600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>457200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>456800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>456500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>456100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>258200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>258000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>257800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>257600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>257200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>257000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>256800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>256600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>256500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4518,8 +4663,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107935000</v>
+      </c>
+      <c r="E66" s="3">
         <v>113674100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110604800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100171600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90043200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78739800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68061400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58777100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55487200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48310800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45846600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44669900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44215200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43994400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42957700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41632700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41067900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40434500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39086000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>37395000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>36921400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>36500500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>35435300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>34230700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4887500</v>
+      </c>
+      <c r="E72" s="3">
         <v>4592700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4298500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4069700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3871100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3698200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3548300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3405300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3296800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3209600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3172300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3079000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2961000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2844000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2730900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2601100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2476600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2322000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2290500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2175700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2051200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2037200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1903300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1789400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8031800</v>
+      </c>
+      <c r="E76" s="3">
         <v>8173200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7840600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7679100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6844600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6642400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5826900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4983200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4862600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4764000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4745200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4741900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4661700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4552000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4407100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4238000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4147600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4001200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4031700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3932000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3797200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3764900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3612300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3561600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E81" s="3">
         <v>329200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>263700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>232100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>205100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>172700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>138200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>147600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>146800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>159900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>155400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>154600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>124500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>133900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>113900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>76100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,22 +6010,23 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4900</v>
       </c>
       <c r="H83" s="3">
         <v>4900</v>
@@ -5837,61 +6035,64 @@
         <v>4900</v>
       </c>
       <c r="J83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5300</v>
       </c>
       <c r="L83" s="3">
         <v>5300</v>
       </c>
       <c r="M83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3400</v>
       </c>
       <c r="Q83" s="3">
         <v>3400</v>
       </c>
       <c r="R83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S83" s="3">
         <v>3800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>2600</v>
       </c>
       <c r="Z83" s="3">
         <v>2600</v>
       </c>
       <c r="AA83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AB83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>405200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-166800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>425400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-291100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>698900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>280300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>278100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>164100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>487600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>206300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>145700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>93600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-86200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>382900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-145200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>394500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>239300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>221500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6195900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6609100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10138700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6368800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>60400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-391800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-996300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-962600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-881200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-682400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,28 +6950,29 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-34000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-33800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-32400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-30000</v>
       </c>
       <c r="J96" s="3">
         <v>-30000</v>
@@ -6751,23 +6984,23 @@
         <v>-30000</v>
       </c>
       <c r="M96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-30300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-30700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-30900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-30800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6795,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7268,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5955300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3479500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10498300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10515700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11287000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11212900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10029600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3031800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7066000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2405300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1081600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>411500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>762800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1219700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>471500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>552000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1376100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1740600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>260000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>628200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1018800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1110700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1177600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7428,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11745900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3296400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>785000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3855700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5231700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5935100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1842500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3017700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>763200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-80100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>545600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>162100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>121900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-348500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-298600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>507100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>41700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-238300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-199500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>192600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-147600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>396300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,203 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>976400</v>
+      </c>
+      <c r="E8" s="3">
         <v>774600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>642200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>606300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>555700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>536800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>491500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>488600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>481500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>481800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>479800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>481400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>484100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>480700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>465600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>460800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>434200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>416800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>397100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>387000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>370700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>361900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>350600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>342300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>335100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,8 +940,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1023,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1056,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1220,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,8 +1303,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E17" s="3">
         <v>129700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>131600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>152900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>159800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>152900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>103800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>219700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>108900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>76200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>242300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>68500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>125100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E18" s="3">
         <v>644900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>570900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>529000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>476900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>448900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>375600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>395000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>388700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>387200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>328500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>326900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>320900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>312700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>328600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>317400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>313000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>177400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>278100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>294500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>119600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>282100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>274600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>210000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,168 +1613,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-172400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-159000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-150500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-149900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-148600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-133600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-169100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-189000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-232200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-196600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-122000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-119600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-114900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-111200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-113200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-112600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-107000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-130200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-101500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-97500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-106700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-93300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-85900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-85100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E21" s="3">
         <v>478300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>417500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>384400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>332300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>305200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>246900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>230800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>204900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>156900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>214400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>211800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>210400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>205000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>218700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>208600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>209600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>50500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>179900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>191600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>191400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>127500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,168 +1860,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E23" s="3">
         <v>472500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>411900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>378600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>327000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>241900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>154900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>151700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>206500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>207300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>206000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>201600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>215400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>204800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>206100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>176600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>197000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>188800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>188700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>124900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E24" s="3">
         <v>133300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>73400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>106600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>72500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>54900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>74800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>48700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>358500</v>
+      </c>
+      <c r="E26" s="3">
         <v>339200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>338500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>272000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>241400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>214500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>190500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>173000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>138600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>147600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>148100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>147300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>160800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>155400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>154600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>112900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>124500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>133900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>113900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>76100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E27" s="3">
         <v>329900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>329200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>263700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>232100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>205100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>172700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>146800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>143000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>159900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>155400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>154600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>112900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>124500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>133900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>113900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>76100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2342,17 +2402,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2360,12 +2420,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>2000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E32" s="3">
         <v>172400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>159000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>150500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>149900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>148600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>133600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>169100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>189000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>232200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>196600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>122000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>119600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>114900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>111200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>113200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>112600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>107000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>130200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>101500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>97500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>106700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>93300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>85900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>85100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E33" s="3">
         <v>329900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>329200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>263700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>232100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>205100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>172700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>147100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>147600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>146800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>159900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>155400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>154600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>124500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>133900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>113900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>76100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E35" s="3">
         <v>329900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>329200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>263700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>232100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>205100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>172700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>147100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>147600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>146800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>159900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>155400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>154600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>124500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>133900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>113900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>76100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,168 +3091,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11324400</v>
+      </c>
+      <c r="E41" s="3">
         <v>14497500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26220500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29547600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28641700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24811600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19528800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12209000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6255500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4475700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1480700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>702300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>798500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>204900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>404700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>269200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>155800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>799400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>290100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>250100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>489900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>693400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>499900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>650200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E42" s="3">
         <v>212100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>262700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>239800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>361600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>340200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>388600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>311000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>376500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>362700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>346800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>326800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>326000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>405800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>348900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>312900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>270300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>300300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>275100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>273300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>197400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>206200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>192600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>171700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>163600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3246,8 +3338,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3326,8 +3421,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3406,8 +3504,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3486,8 +3587,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3566,88 +3670,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>367900</v>
+      </c>
+      <c r="E48" s="3">
         <v>364500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>331100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>318200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>311400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>313500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>321000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>317700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>295700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>291900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>293000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>284000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>279300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>282500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>69100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>66500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>62200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>61600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>60000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>56300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>53900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>50700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>47700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3726,8 +3836,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,8 +4002,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3954,20 +4073,23 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>60200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114468700</v>
+      </c>
+      <c r="E54" s="3">
         <v>115966800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121847300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118445400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107850700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96887800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85382200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>73888300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63760300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60349800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53074700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50591800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49411800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48876900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48546500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47364800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45870700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45215500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44435600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43117700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41326900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40718600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40265300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>39047600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37792300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,8 +4315,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4266,8 +4396,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4346,88 +4479,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1826700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1520500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1348900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1112500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1221100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>997000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1021800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>928300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>989800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>759800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>682000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>715100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>737100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>799800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>733100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>530700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>498500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>436400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>359200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>403800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>397900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>184500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>397600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>373600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>252900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4506,88 +4645,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>571300</v>
+      </c>
+      <c r="E61" s="3">
         <v>570900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>570600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>570200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>569900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>569500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>829100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>828600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>457200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>456800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>456500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>456100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>258800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>258400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>258200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>258000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>257800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>257400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>257200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>257000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>256800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>256600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>256500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4666,8 +4811,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106778200</v>
+      </c>
+      <c r="E66" s="3">
         <v>107935000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>113674100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110604800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100171600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90043200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78739800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68061400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58777100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55487200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48310800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45846600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44669900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44215200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43994400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42957700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41632700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41067900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40434500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39086000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>37395000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>36921400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36500500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>35435300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>34230700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5201500</v>
+      </c>
+      <c r="E72" s="3">
         <v>4887500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4592700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4298500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4069700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3871100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3698200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3548300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3405300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3296800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3209600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3172300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3079000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2961000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2844000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2730900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2601100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2476600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2322000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2290500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2175700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2051200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2037200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1903300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1789400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7690500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8031800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8173200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7840600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7679100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6844600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6642400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5826900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4983200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4862600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4764000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4745200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4741900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4661700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4552000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4407100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4238000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4147600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4001200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4031700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3932000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3797200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3764900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3612300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3561600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E81" s="3">
         <v>329900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>329200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>263700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>232100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>205100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>172700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>147100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>147600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>146800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>159900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>155400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>154600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>124500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>133900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>113900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>76100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,25 +6208,26 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4900</v>
       </c>
       <c r="I83" s="3">
         <v>4900</v>
@@ -6038,61 +6236,64 @@
         <v>4900</v>
       </c>
       <c r="K83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L83" s="3">
         <v>5200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5300</v>
       </c>
       <c r="M83" s="3">
         <v>5300</v>
       </c>
       <c r="N83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3400</v>
       </c>
       <c r="R83" s="3">
         <v>3400</v>
       </c>
       <c r="S83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T83" s="3">
         <v>3800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>2600</v>
       </c>
       <c r="AA83" s="3">
         <v>2600</v>
       </c>
       <c r="AB83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AC83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>621600</v>
+      </c>
+      <c r="E89" s="3">
         <v>405200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-166800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>425400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-291100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>698900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>280300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>278100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>73600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>164100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>487600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>206100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>206300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>145700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>93600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-86200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>382900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-145200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>394500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>239300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>221500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>6700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2222300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6195900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6609100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10138700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6368800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>60400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-391800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-996300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-962600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-881200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-682400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6960,22 +7193,22 @@
         <v>-35300</v>
       </c>
       <c r="E96" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-35200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-34000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-33800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-32400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-30000</v>
       </c>
       <c r="K96" s="3">
         <v>-30000</v>
@@ -6987,23 +7220,23 @@
         <v>-30000</v>
       </c>
       <c r="N96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-30300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-30700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7031,8 +7264,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,88 +7513,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1507800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5955300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3479500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10498300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10515700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11287000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11212900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10029600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3031800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7066000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2405300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1081600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>411500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>72700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>762800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1219700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>471500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>552000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1376100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1740600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>260000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>628200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1018800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1110700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1177600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,84 +7679,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3108400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11745900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3296400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>785000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3855700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5231700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5935100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1842500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3017700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>763200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-80100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>545600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>162100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>121900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-348500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-298600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>507100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>41700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-238300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-199500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>192600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-147600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>396300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-16800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>SBNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,209 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1157200</v>
+      </c>
+      <c r="E8" s="3">
         <v>976400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>774600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>642200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>606300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>555700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>536800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>491500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>488600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>481500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>481800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>479800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>481400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>484100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>480700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>465600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>460800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>434200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>416800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>397100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>387000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>370700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>361900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>350600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>342300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>335100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -943,8 +949,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1035,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1239,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1325,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>561300</v>
+      </c>
+      <c r="E17" s="3">
         <v>331400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>159800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>152900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>103800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>108900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>76200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>242300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>68500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>67700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>125100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>595900</v>
+      </c>
+      <c r="E18" s="3">
         <v>645000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>644900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>570900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>529000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>476900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>448900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>375600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>395000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>388700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>387200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>348200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>328500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>326900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>320900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>312700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>328600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>317400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>313000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>177400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>278100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>294500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>119600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>282100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>274600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>210000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>248400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,174 +1646,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-181800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-172400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-159000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-150500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-149900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-148600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-133600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-169100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-189000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-232200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-196600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-122000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-119600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-114900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-111200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-113200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-112600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-107000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-130200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-101500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-97500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-106700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-93300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-85900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-85100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-79200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>413700</v>
+      </c>
+      <c r="E21" s="3">
         <v>469200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>478300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>417500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>384400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>332300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>305200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>246900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>230800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>204900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>156900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>214400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>210400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>205000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>218700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>208600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>209600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>50500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>179900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>15800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>191600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>191400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>127500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>171600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1863,174 +1902,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E23" s="3">
         <v>463200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>472500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>411900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>378600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>327000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>241900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>154900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>151700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>206500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>207300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>206000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>201600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>204800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>206100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>176600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>197000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>188800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>188700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>124900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E24" s="3">
         <v>104700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>133300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>73400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>106600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>72500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>54900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>74800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>48700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E26" s="3">
         <v>358500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>339200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>338500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>272000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>241400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>214500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>190500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>173000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>138600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>117200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>148100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>147300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>160800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>155400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>154600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>112900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>124500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>133900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>113900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>76100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E27" s="3">
         <v>349100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>329900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>329200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>263700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>232100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>172700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>146800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>159900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>155400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>154600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>112900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>124500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>133900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>113900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>76100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,17 +2465,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2423,12 +2483,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>2000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2444,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E32" s="3">
         <v>181800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>172400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>159000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>150500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>149900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>148600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>133600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>169100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>189000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>232200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>196600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>122000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>119600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>114900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>111200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>113200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>112600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>107000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>130200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>101500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>97500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>106700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>93300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>85900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>85100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E33" s="3">
         <v>349100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>329900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>329200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>263700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>232100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>205100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>172700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>138200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>147100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>147600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>146800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>159900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>155400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>154600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>124500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>133900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>113900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>76100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E35" s="3">
         <v>349100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>329900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>329200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>263700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>232100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>205100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>172700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>138200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>147100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>147600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>146800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>159900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>155400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>154600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>124500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>133900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>113900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>76100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,174 +3177,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5874500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11324400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14497500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26220500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29547600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28641700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24811600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19528800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12209000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6255500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4475700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1480700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>702300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>798500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>204900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>404700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>269200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>799400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>290100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>250100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>489900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>693400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>499900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>650200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>640500</v>
+      </c>
+      <c r="E42" s="3">
         <v>263600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>212100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>262700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>239800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>361600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>340200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>388600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>311000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>376500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>362700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>346800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>326800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>326000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>405800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>348900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>312900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>270300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>300300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>275100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>273300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>197400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>206200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>192600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>171700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>163600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>182400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3341,8 +3433,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3424,8 +3519,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3507,8 +3605,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3590,8 +3691,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3673,91 +3777,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E48" s="3">
         <v>367900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>364500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>331100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>318200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>311400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>313500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>321000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>317700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>295700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>291900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>293000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>284000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>279300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>282500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>69100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>66500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>62200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>61600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>60000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>56300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>53900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>50700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>47700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3839,8 +3949,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,8 +4121,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4076,20 +4195,23 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>60200</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110363700</v>
+      </c>
+      <c r="E54" s="3">
         <v>114468700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115966800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121847300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118445400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107850700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96887800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85382200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73888300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63760300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60349800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53074700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50591800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49411800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48876900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48546500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47364800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45870700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45215500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>44435600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43117700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41326900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40718600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40265300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>39047600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>37792300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>36546800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,8 +4445,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4399,8 +4529,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4482,91 +4615,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1755500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1826700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1520500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1348900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1112500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1221100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>997000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1021800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>928300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>989800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>759800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>682000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>715100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>737100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>799800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>733100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>530700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>498500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>436400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>359200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>403800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>397900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>184500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>397600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>373600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>252900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4648,91 +4787,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>571600</v>
+      </c>
+      <c r="E61" s="3">
         <v>571300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>570900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>570600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>570200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>569900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>569500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>829100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>828600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>457200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>456800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>456500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>456100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>258800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>258600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>258400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>258200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>258000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>257600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>257400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>257200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>257000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>256800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>256600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>256500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>256400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4814,8 +4959,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102350600</v>
+      </c>
+      <c r="E66" s="3">
         <v>106778200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107935000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>113674100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110604800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100171600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90043200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78739800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68061400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58777100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55487200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48310800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45846600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44669900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44215200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43994400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42957700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41632700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41067900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40434500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39086000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>37395000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36921400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36500500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>35435300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34230700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>33052300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5457900</v>
+      </c>
+      <c r="E72" s="3">
         <v>5201500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4887500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4592700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4298500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4069700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3871100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3698200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3548300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3405300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3296800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3209600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3172300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3079000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2961000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2844000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2730900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2601100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2476600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2322000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2290500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2175700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2051200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2037200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1903300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1789400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1713300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8013100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7690500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8031800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8173200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7840600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7679100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6844600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6642400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5826900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4983200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4862600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4764000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4745200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4741900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4661700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4552000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4407100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4238000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4147600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4001200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4031700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3932000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3797200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3764900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3612300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3561600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3494500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E81" s="3">
         <v>349100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>329900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>329200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>263700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>232100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>205100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>172700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>138200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>147100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>147600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>146800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>159900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>155400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>154600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>124500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>133900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>113900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>76100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,28 +6406,29 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4900</v>
       </c>
       <c r="J83" s="3">
         <v>4900</v>
@@ -6239,61 +6437,64 @@
         <v>4900</v>
       </c>
       <c r="L83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M83" s="3">
         <v>5200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>5300</v>
       </c>
       <c r="N83" s="3">
         <v>5300</v>
       </c>
       <c r="O83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3400</v>
       </c>
       <c r="S83" s="3">
         <v>3400</v>
       </c>
       <c r="T83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U83" s="3">
         <v>3800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2800</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>2600</v>
       </c>
       <c r="AB83" s="3">
         <v>2600</v>
       </c>
       <c r="AC83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AD83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E89" s="3">
         <v>621600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>405200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-166800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>425400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-291100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>698900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>280300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>278100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>73600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>164100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>487600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>206100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>206300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>145700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>93600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-86200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>382900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-145200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>394500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>239300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>221500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-75600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1199700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2222300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6195900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6609100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10138700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6368800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6101800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4511800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4139900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1489900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4328500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1920300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1214700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>60400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-391800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1088300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1026300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-996300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-962600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1557700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-881200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-682400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1220000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1497600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1002800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1487800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7416,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,22 +7429,22 @@
         <v>-35300</v>
       </c>
       <c r="F96" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-35200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-34000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-33800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-32400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-30000</v>
       </c>
       <c r="L96" s="3">
         <v>-30000</v>
@@ -7223,23 +7456,23 @@
         <v>-30000</v>
       </c>
       <c r="O96" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-30300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-30800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-31000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7267,8 +7500,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,91 +7758,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4401300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1507800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5955300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3479500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10498300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10515700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11287000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11212900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10029600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3031800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7066000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2405300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1081600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>411500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>72700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>762800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1219700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>471500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>552000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1376100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1740600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>260000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>628200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1018800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1110700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1177600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1552100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7682,87 +7930,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5515300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3108400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11745900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3296400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>785000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3855700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5231700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5935100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1842500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3017700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>763200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-80100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>545600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-155000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>162100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>121900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-348500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-298600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>507100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>41700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-238300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-199500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>192600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-147600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>396300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-16800</v>
       </c>
     </row>
